--- a/data/trans_orig/P14A33-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A33-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DE3DCF1-3A1A-4293-A0E7-31EDD4FC253C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAA96AFD-3275-4490-98BC-C4ABBDA18F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{094D100F-CCA9-4DC4-8B0F-4CE6554BADA9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5AC0B559-E20D-4611-A8A2-BBFF72B86541}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="57">
   <si>
     <t>Población que recibe medicación o terapia por esterilidad en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -102,7 +102,7 @@
     <t>19,65%</t>
   </si>
   <si>
-    <t>79,83%</t>
+    <t>80,35%</t>
   </si>
   <si>
     <t>66,16%</t>
@@ -111,16 +111,10 @@
     <t>37,92%</t>
   </si>
   <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
   </si>
   <si>
     <t>33,84%</t>
@@ -129,10 +123,10 @@
     <t>62,08%</t>
   </si>
   <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -147,31 +141,31 @@
     <t>22,12%</t>
   </si>
   <si>
-    <t>57,28%</t>
+    <t>56,23%</t>
   </si>
   <si>
     <t>21,28%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>42,72%</t>
+    <t>43,77%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -625,7 +619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCED34A-82DC-4376-9A35-F6B6D4BCC3B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E959DDF4-82E7-4738-BB03-6E332F9928B7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -949,10 +943,10 @@
         <v>3832</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -964,7 +958,7 @@
         <v>1044</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
@@ -979,13 +973,13 @@
         <v>4876</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1041,7 +1035,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1072,7 +1066,7 @@
         <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1087,7 +1081,7 @@
         <v>13</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1118,7 +1112,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>18</v>
@@ -1133,7 +1127,7 @@
         <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>18</v>
@@ -1217,13 +1211,13 @@
         <v>2041</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1232,13 +1226,13 @@
         <v>2978</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1253,10 +1247,10 @@
         <v>3832</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -1268,10 +1262,10 @@
         <v>7185</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -1283,13 +1277,13 @@
         <v>11016</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,7 +1339,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +1358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F47FD4-99AC-465F-8809-EDA573DF3696}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9E2242-A866-4821-811D-DCA111D15EA3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1381,7 +1375,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1494,7 +1488,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1509,7 +1503,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1524,7 +1518,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1542,7 +1536,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>18</v>
@@ -1557,7 +1551,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -1572,7 +1566,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -1649,7 +1643,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -1661,7 +1655,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>18</v>
@@ -1673,7 +1667,7 @@
         <v>1020</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
@@ -1697,7 +1691,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -1715,7 +1709,7 @@
         <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1724,7 +1718,7 @@
         <v>912</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
@@ -1786,7 +1780,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1804,7 +1798,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1832,7 +1826,7 @@
         <v>13</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,7 +1844,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>18</v>
@@ -1878,7 +1872,7 @@
         <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>18</v>
@@ -1953,7 +1947,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1962,7 +1956,7 @@
         <v>1020</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
@@ -1977,13 +1971,13 @@
         <v>1020</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,7 +1995,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -2013,7 +2007,7 @@
         <v>1020</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
@@ -2028,10 +2022,10 @@
         <v>3894</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -2090,7 +2084,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A33-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A33-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAA96AFD-3275-4490-98BC-C4ABBDA18F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13CBBB4D-B14C-4307-9F74-0A31E346DFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5AC0B559-E20D-4611-A8A2-BBFF72B86541}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6D8D1EA6-FC35-4885-90F2-60435AE309EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="59">
   <si>
     <t>Población que recibe medicación o terapia por esterilidad en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -102,19 +102,25 @@
     <t>19,65%</t>
   </si>
   <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
     <t>80,35%</t>
   </si>
   <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
+    <t>20,17%</t>
   </si>
   <si>
     <t>33,84%</t>
@@ -123,10 +129,10 @@
     <t>62,08%</t>
   </si>
   <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -141,37 +147,37 @@
     <t>22,12%</t>
   </si>
   <si>
-    <t>56,23%</t>
+    <t>55,69%</t>
   </si>
   <si>
     <t>21,28%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>43,77%</t>
+    <t>44,31%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por esterilidad en 2015 (Tasa respuesta: 0,08%)</t>
+    <t>Población que recibe medicación o terapia por esterilidad en 2016 (Tasa respuesta: 0,08%)</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -619,7 +625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E959DDF4-82E7-4738-BB03-6E332F9928B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57750A9-975D-4024-9C25-FADA396ED97C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -943,10 +949,10 @@
         <v>3832</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -958,7 +964,7 @@
         <v>1044</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
@@ -973,13 +979,13 @@
         <v>4876</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1035,7 +1041,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1066,7 +1072,7 @@
         <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1081,7 +1087,7 @@
         <v>13</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1112,7 +1118,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>18</v>
@@ -1127,7 +1133,7 @@
         <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>18</v>
@@ -1211,13 +1217,13 @@
         <v>2041</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1226,13 +1232,13 @@
         <v>2978</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1247,10 +1253,10 @@
         <v>3832</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -1262,10 +1268,10 @@
         <v>7185</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -1277,13 +1283,13 @@
         <v>11016</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1339,7 +1345,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1358,7 +1364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9E2242-A866-4821-811D-DCA111D15EA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E149479F-AAA0-4405-982C-0D2A0DE7D65C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1375,7 +1381,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1488,7 +1494,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1503,7 +1509,7 @@
         <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1518,7 +1524,7 @@
         <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1536,7 +1542,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>18</v>
@@ -1551,7 +1557,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -1566,7 +1572,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -1643,7 +1649,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -1655,7 +1661,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>18</v>
@@ -1667,7 +1673,7 @@
         <v>1020</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
@@ -1691,7 +1697,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -1709,7 +1715,7 @@
         <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1718,7 +1724,7 @@
         <v>912</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
@@ -1780,7 +1786,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1798,7 +1804,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1826,7 +1832,7 @@
         <v>13</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1844,7 +1850,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>18</v>
@@ -1872,7 +1878,7 @@
         <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>18</v>
@@ -1947,7 +1953,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1956,7 +1962,7 @@
         <v>1020</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
@@ -1971,13 +1977,13 @@
         <v>1020</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,7 +2001,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -2007,7 +2013,7 @@
         <v>1020</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
@@ -2022,10 +2028,10 @@
         <v>3894</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -2084,7 +2090,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
